--- a/medicine/Enfance/Jarkko_Tontti/Jarkko_Tontti.xlsx
+++ b/medicine/Enfance/Jarkko_Tontti/Jarkko_Tontti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jarkko Olavi Tontti (né le 9 décembre 1971 à Tampere), est un poète, écrivain et juriste finlandais[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jarkko Olavi Tontti (né le 9 décembre 1971 à Tampere), est un poète, écrivain et juriste finlandais.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jarkko Tontti a été élève du lycée classique de Tampere. Il a étudié le droit, la philosophie et la littérature dans les universités de Helsinki, Edimbourg, Berlin et Bruxelles. 
 L'année scolaire 1993–1994, il est étudiant en échange à l'Université d'Édimbourg. 
 En 1997, il obtient un diplôme d’études approfondies à Bruxelles.
 En 2001, il est chercheur invité à l'université Humboldt de Berlin.
-En 2002 il soutient sa thèse de  doctorat en droit à l'Université d'Helsinki[2]. 
+En 2002 il soutient sa thèse de  doctorat en droit à l'Université d'Helsinki. 
 Avant sa carrière littéraire, il est juriste au Ministère de la Justice et au Parlement de Finlande, et lecteur à l’Université d'Helsinki. 
 Tontti a publié des recueils de poèmes, des romans et des essais ainsi que de plusieurs publications universitaires dans le domaine du droit. Son premier recueil Vuosikirja (Annales – 2006) s’est vu décerner le prix littéraire Kalevi Jäntti. 
 Ses poèmes ont été traduits en anglais, français, italien, russe, espagnol, estonien, japonais, allemand, slovène, latin, polonais, roumain, croate, marathi, mari, hébreu, suédois et portugais. Il a été trésorier du PEN International et président du centre PEN en Finlande.
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Œuvres en finnois
-Kangasalan ja Jerusalemin runot (Poèmes), Aviador, 2024 (ISBN 978-952-381-230-7)
+          <t>Œuvres en finnois</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kangasalan ja Jerusalemin runot (Poèmes), Aviador, 2024 (ISBN 978-952-381-230-7)
 Tarkoituksista ja keinoista (Essais), Docendo, 2022 (ISBN 978-952-382-404-1)
 Vedeera ja polttavan auringon maa (Roman), Aviador, 2022 (ISBN 978-952-381-053-2)
 Haava (Roman), Otava, 2021 (ISBN 978-951-1-35685-1)
@@ -567,11 +586,7 @@
 Koti, uskonto, isänmaa (Essais), Helsinki-kirjat, 2011 (ISBN 978-952-5874-30-3)
 Jacasser (Poèmes), Otava, 2009 (ISBN 978-951-1-23826-3)
 Luokkakokous (Roman), Otava, 2007 (ISBN 978-951-1-22083-1)
-Vuosikirja (Poèmes), Otava, 2006 (ISBN 951-1-20950-7)
-Œuvres en anglais
-Right and Prejudice (Philosophie du droit), Ashgate, 2004, 204 p. (ISBN 0-7546-2397-1)
-Traduction en français
-Jarkko Tontti, Poèmes, traduit du finnois par Gabriel Rebourcet, in Mange-Monde, n° 4, 2012.</t>
+Vuosikirja (Poèmes), Otava, 2006 (ISBN 951-1-20950-7)</t>
         </is>
       </c>
     </row>
@@ -596,10 +611,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Œuvres en anglais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Right and Prejudice (Philosophie du droit), Ashgate, 2004, 204 p. (ISBN 0-7546-2397-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jarkko_Tontti</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jarkko_Tontti</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traduction en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jarkko Tontti, Poèmes, traduit du finnois par Gabriel Rebourcet, in Mange-Monde, n° 4, 2012.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jarkko_Tontti</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jarkko_Tontti</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Kalevi Jäntti : 2006
 Prix Lasten LukuVarkaus : 2013</t>
